--- a/output_data/genus_table_1pct.xlsx
+++ b/output_data/genus_table_1pct.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t xml:space="preserve">Genus</t>
   </si>
@@ -110,18 +110,12 @@
     <t xml:space="preserve">*Hyphomicrobium*</t>
   </si>
   <si>
-    <t xml:space="preserve">*Luteimonas*</t>
-  </si>
-  <si>
     <t xml:space="preserve">*MND1*</t>
   </si>
   <si>
     <t xml:space="preserve">*Mycobacterium*</t>
   </si>
   <si>
-    <t xml:space="preserve">*NS9_marine_group*</t>
-  </si>
-  <si>
     <t xml:space="preserve">*Nevskia*</t>
   </si>
   <si>
@@ -149,9 +143,6 @@
     <t xml:space="preserve">*Planctopirus*</t>
   </si>
   <si>
-    <t xml:space="preserve">*Pseudolabrys*</t>
-  </si>
-  <si>
     <t xml:space="preserve">*Pseudomonas*</t>
   </si>
   <si>
@@ -161,12 +152,6 @@
     <t xml:space="preserve">*Reyranella*</t>
   </si>
   <si>
-    <t xml:space="preserve">*Rhizobacter*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*Rhodobacter*</t>
-  </si>
-  <si>
     <t xml:space="preserve">*Rhodococcus*</t>
   </si>
   <si>
@@ -185,15 +170,9 @@
     <t xml:space="preserve">*Sphingorhabdus*</t>
   </si>
   <si>
-    <t xml:space="preserve">*Stenotrophobacter*</t>
-  </si>
-  <si>
     <t xml:space="preserve">*Terrimonas*</t>
   </si>
   <si>
-    <t xml:space="preserve">*Undibacterium*</t>
-  </si>
-  <si>
     <t xml:space="preserve">*Vicinamibacteraceae*</t>
   </si>
   <si>
@@ -209,6 +188,9 @@
     <t xml:space="preserve">Genus of Comamonadaceae</t>
   </si>
   <si>
+    <t xml:space="preserve">Genus of Gallionellaceae</t>
+  </si>
+  <si>
     <t xml:space="preserve">Genus of Gemmataceae</t>
   </si>
   <si>
@@ -224,7 +206,16 @@
     <t xml:space="preserve">Genus of Planctomycetales</t>
   </si>
   <si>
+    <t xml:space="preserve">Genus of Rhizobiaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genus of Rhizobiales</t>
+  </si>
+  <si>
     <t xml:space="preserve">Genus of Rhizobiales_Incertae_Sedis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genus of Rhodobacteraceae</t>
   </si>
   <si>
     <t xml:space="preserve">Genus of Rubinisphaeraceae</t>
@@ -620,37 +611,37 @@
         <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>4.01240722277612</v>
+        <v>4.00894319741444</v>
       </c>
       <c r="C2" t="n">
-        <v>3.97715999029961</v>
+        <v>3.98128531073446</v>
       </c>
       <c r="D2" t="n">
-        <v>4.86306571951928</v>
+        <v>4.86502190042013</v>
       </c>
       <c r="E2" t="n">
-        <v>3.34104457691966</v>
+        <v>3.34052443119899</v>
       </c>
       <c r="F2" t="n">
-        <v>1.23355989054639</v>
+        <v>1.22407419704717</v>
       </c>
       <c r="G2" t="n">
-        <v>1.10670886916488</v>
+        <v>1.11098766803688</v>
       </c>
       <c r="H2" t="n">
-        <v>3.43713802013722</v>
+        <v>3.44642737486319</v>
       </c>
       <c r="I2" t="n">
-        <v>2.58357316803188</v>
+        <v>2.58471760797342</v>
       </c>
       <c r="J2" t="n">
-        <v>2.19408169546674</v>
+        <v>2.19577127015907</v>
       </c>
       <c r="K2" t="n">
-        <v>2.37081266189577</v>
+        <v>2.37242712475013</v>
       </c>
       <c r="L2" t="n">
-        <v>0.429757954975617</v>
+        <v>0.434547665150628</v>
       </c>
     </row>
     <row r="3">
@@ -658,37 +649,37 @@
         <v>13</v>
       </c>
       <c r="B3" t="n">
-        <v>0.569402902403899</v>
+        <v>0.38517731438438</v>
       </c>
       <c r="C3" t="n">
-        <v>0.659185608148328</v>
+        <v>0.487729519774011</v>
       </c>
       <c r="D3" t="n">
-        <v>0.558459545190546</v>
+        <v>0.355323142933762</v>
       </c>
       <c r="E3" t="n">
-        <v>0.600587240857728</v>
+        <v>0.411449413962591</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0860623179450967</v>
+        <v>0.0863271133541404</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0664025321498927</v>
+        <v>0.0666592600822131</v>
       </c>
       <c r="H3" t="n">
-        <v>1.0313641628798</v>
+        <v>0.933640079515758</v>
       </c>
       <c r="I3" t="n">
-        <v>1.17113128182422</v>
+        <v>1.02990033222591</v>
       </c>
       <c r="J3" t="n">
-        <v>0.870597546497823</v>
+        <v>0.712855602737014</v>
       </c>
       <c r="K3" t="n">
-        <v>0.660754269657988</v>
+        <v>0.546976253761835</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0935224565231913</v>
+        <v>0.0945647768721574</v>
       </c>
     </row>
     <row r="4">
@@ -696,37 +687,37 @@
         <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>2.05826963553783</v>
+        <v>1.52964094390579</v>
       </c>
       <c r="C4" t="n">
-        <v>2.06794682422452</v>
+        <v>1.57574152542373</v>
       </c>
       <c r="D4" t="n">
-        <v>1.8607872045749</v>
+        <v>1.46598730669527</v>
       </c>
       <c r="E4" t="n">
-        <v>1.99305988077231</v>
+        <v>1.65024575762293</v>
       </c>
       <c r="F4" t="n">
-        <v>0.167711183687881</v>
+        <v>0.154946100892047</v>
       </c>
       <c r="G4" t="n">
-        <v>0.126164811084796</v>
+        <v>0.126652594156205</v>
       </c>
       <c r="H4" t="n">
-        <v>1.83328878196561</v>
+        <v>1.19050278081794</v>
       </c>
       <c r="I4" t="n">
-        <v>2.05888864290458</v>
+        <v>1.55924695459579</v>
       </c>
       <c r="J4" t="n">
-        <v>1.27511761860792</v>
+        <v>0.787661437592132</v>
       </c>
       <c r="K4" t="n">
-        <v>1.25565263204109</v>
+        <v>0.814972651187312</v>
       </c>
       <c r="L4" t="n">
-        <v>0.233806141307978</v>
+        <v>0.229657315260954</v>
       </c>
     </row>
     <row r="5">
@@ -734,37 +725,37 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0952697463166057</v>
+        <v>0.0951874972329216</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0793668290747151</v>
+        <v>0.0794491525423729</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0848858508689631</v>
+        <v>0.0849199964244212</v>
       </c>
       <c r="E5" t="n">
-        <v>0.164605391938785</v>
+        <v>0.164579765585037</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0463412481242828</v>
+        <v>0.0464838302676141</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0420549370282653</v>
+        <v>0.0422175313854016</v>
       </c>
       <c r="H5" t="n">
-        <v>0.601443464314354</v>
+        <v>0.603068950883384</v>
       </c>
       <c r="I5" t="n">
-        <v>1.18220057560328</v>
+        <v>1.18272425249169</v>
       </c>
       <c r="J5" t="n">
-        <v>0.855208195928418</v>
+        <v>0.855866757607093</v>
       </c>
       <c r="K5" t="n">
-        <v>1.00320498748738</v>
+        <v>1.00388814445445</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0645750295041083</v>
+        <v>0.0652947268879182</v>
       </c>
     </row>
     <row r="6">
@@ -772,37 +763,37 @@
         <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>0.110778774786751</v>
+        <v>0.110683136317351</v>
       </c>
       <c r="C6" t="n">
-        <v>0.163142926431359</v>
+        <v>0.163312146892655</v>
       </c>
       <c r="D6" t="n">
-        <v>0.120627261761158</v>
+        <v>0.120675784392599</v>
       </c>
       <c r="E6" t="n">
-        <v>0.17127858350387</v>
+        <v>0.171251918243889</v>
       </c>
       <c r="F6" t="n">
-        <v>1.01950745873422</v>
+        <v>1.02264426588751</v>
       </c>
       <c r="G6" t="n">
-        <v>0.867659753425264</v>
+        <v>0.871014331740918</v>
       </c>
       <c r="H6" t="n">
-        <v>0.414327719861</v>
+        <v>0.415447499497443</v>
       </c>
       <c r="I6" t="n">
-        <v>0.354217400929821</v>
+        <v>0.35437430786268</v>
       </c>
       <c r="J6" t="n">
-        <v>0.351756584443565</v>
+        <v>0.352027458141735</v>
       </c>
       <c r="K6" t="n">
-        <v>0.331474733283576</v>
+        <v>0.331700459108582</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0912957313678773</v>
+        <v>0.0923132345656775</v>
       </c>
     </row>
     <row r="7">
@@ -810,37 +801,37 @@
         <v>17</v>
       </c>
       <c r="B7" t="n">
-        <v>0.323474022377312</v>
+        <v>0.323194758046664</v>
       </c>
       <c r="C7" t="n">
-        <v>0.427699023347076</v>
+        <v>0.428142655367232</v>
       </c>
       <c r="D7" t="n">
-        <v>0.375284814368047</v>
+        <v>0.375435773665862</v>
       </c>
       <c r="E7" t="n">
-        <v>1.25011121985942</v>
+        <v>1.24991659809176</v>
       </c>
       <c r="F7" t="n">
-        <v>0.423691411422014</v>
+        <v>0.424995019589614</v>
       </c>
       <c r="G7" t="n">
-        <v>0.314305318842825</v>
+        <v>0.315520497722475</v>
       </c>
       <c r="H7" t="n">
-        <v>0.41210015147465</v>
+        <v>0.413213910790467</v>
       </c>
       <c r="I7" t="n">
-        <v>0.453841044941333</v>
+        <v>0.454042081949059</v>
       </c>
       <c r="J7" t="n">
-        <v>0.395726157499011</v>
+        <v>0.396030890409452</v>
       </c>
       <c r="K7" t="n">
-        <v>1.71225358914695</v>
+        <v>1.71341959009731</v>
       </c>
       <c r="L7" t="n">
-        <v>0.643523569885769</v>
+        <v>0.650695726572702</v>
       </c>
     </row>
     <row r="8">
@@ -848,37 +839,37 @@
         <v>18</v>
       </c>
       <c r="B8" t="n">
-        <v>0.259222333000997</v>
+        <v>0.258998538982601</v>
       </c>
       <c r="C8" t="n">
-        <v>0.372583169822968</v>
+        <v>0.372969632768362</v>
       </c>
       <c r="D8" t="n">
-        <v>0.283697448956798</v>
+        <v>0.283811566997408</v>
       </c>
       <c r="E8" t="n">
-        <v>1.15668653794822</v>
+        <v>1.15650646086782</v>
       </c>
       <c r="F8" t="n">
-        <v>0.308941654161885</v>
+        <v>0.309892201784094</v>
       </c>
       <c r="G8" t="n">
-        <v>0.276677217291219</v>
+        <v>0.277746917009221</v>
       </c>
       <c r="H8" t="n">
-        <v>0.242804954112091</v>
+        <v>0.243461169060329</v>
       </c>
       <c r="I8" t="n">
-        <v>0.25680761567412</v>
+        <v>0.256921373200443</v>
       </c>
       <c r="J8" t="n">
-        <v>0.303390054082575</v>
+        <v>0.303623682647246</v>
       </c>
       <c r="K8" t="n">
-        <v>1.65298327259955</v>
+        <v>1.65410891197856</v>
       </c>
       <c r="L8" t="n">
-        <v>0.440891580752188</v>
+        <v>0.445805376683028</v>
       </c>
     </row>
     <row r="9">
@@ -886,37 +877,37 @@
         <v>19</v>
       </c>
       <c r="B9" t="n">
-        <v>0.717846460618146</v>
+        <v>0.717226723336432</v>
       </c>
       <c r="C9" t="n">
-        <v>0.683436583698935</v>
+        <v>0.657662429378531</v>
       </c>
       <c r="D9" t="n">
-        <v>0.755037305097619</v>
+        <v>0.755341020827746</v>
       </c>
       <c r="E9" t="n">
-        <v>0.687338731203844</v>
+        <v>0.687231723861842</v>
       </c>
       <c r="F9" t="n">
-        <v>0.798834848618589</v>
+        <v>0.754808862916971</v>
       </c>
       <c r="G9" t="n">
-        <v>0.911928108191859</v>
+        <v>0.88434618375736</v>
       </c>
       <c r="H9" t="n">
-        <v>0.452196382428941</v>
+        <v>0.453418507516026</v>
       </c>
       <c r="I9" t="n">
-        <v>1.02944432145229</v>
+        <v>1.02990033222591</v>
       </c>
       <c r="J9" t="n">
-        <v>0.624367937387328</v>
+        <v>0.607247365294493</v>
       </c>
       <c r="K9" t="n">
-        <v>0.636607103657198</v>
+        <v>0.61068031544494</v>
       </c>
       <c r="L9" t="n">
-        <v>0.999799594736022</v>
+        <v>0.932138514882695</v>
       </c>
     </row>
     <row r="10">
@@ -924,37 +915,37 @@
         <v>20</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0598205383848455</v>
+        <v>0.0597688936113694</v>
       </c>
       <c r="C10" t="n">
-        <v>0.057320487665072</v>
+        <v>0.0573799435028249</v>
       </c>
       <c r="D10" t="n">
-        <v>0.060313630880579</v>
+        <v>0.0603378921962993</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0845270931577543</v>
+        <v>0.0845139336788026</v>
       </c>
       <c r="F10" t="n">
-        <v>0.075028687439315</v>
+        <v>0.0752595347189942</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0531220257199141</v>
+        <v>0.0533274080657705</v>
       </c>
       <c r="H10" t="n">
-        <v>1.57711841753542</v>
+        <v>1.49650443367358</v>
       </c>
       <c r="I10" t="n">
-        <v>0.96302855877795</v>
+        <v>0.914728682170543</v>
       </c>
       <c r="J10" t="n">
-        <v>0.923361034164358</v>
+        <v>0.877868473740952</v>
       </c>
       <c r="K10" t="n">
-        <v>0.645387891293849</v>
+        <v>0.612877007227116</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0311741521743971</v>
+        <v>0.0315215922907191</v>
       </c>
     </row>
     <row r="11">
@@ -962,37 +953,37 @@
         <v>21</v>
       </c>
       <c r="B11" t="n">
-        <v>0.445330674642739</v>
+        <v>0.44494620799575</v>
       </c>
       <c r="C11" t="n">
-        <v>1.37789633810269</v>
+        <v>1.37932556497175</v>
       </c>
       <c r="D11" t="n">
-        <v>0.390921681633382</v>
+        <v>0.39107893090194</v>
       </c>
       <c r="E11" t="n">
-        <v>0.360352344514637</v>
+        <v>0.360296243578053</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00662017830346897</v>
+        <v>0.00664054718108772</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.111378419317473</v>
+        <v>0.111679435348775</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00442771751162276</v>
+        <v>0.0044296788482835</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0219847865277228</v>
+        <v>0.0220017161338584</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0548799227290688</v>
+        <v>0.0549172945544011</v>
       </c>
       <c r="L11" t="n">
-        <v>0.026720701863769</v>
+        <v>0.0270185076777593</v>
       </c>
     </row>
     <row r="12">
@@ -1003,13 +994,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00440926828192861</v>
+        <v>0.0044138418079096</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0133463831301717</v>
+        <v>0.0133443053177057</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1021,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0199247288023024</v>
+        <v>0.0199335548172757</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0153663783641393</v>
+        <v>0.0153768424752323</v>
       </c>
       <c r="L12" t="n">
-        <v>1.04656082299762</v>
+        <v>1.05822488404557</v>
       </c>
     </row>
     <row r="13">
@@ -1038,37 +1029,37 @@
         <v>23</v>
       </c>
       <c r="B13" t="n">
-        <v>3.66013071895425</v>
+        <v>3.65697082392527</v>
       </c>
       <c r="C13" t="n">
-        <v>3.51198218655614</v>
+        <v>3.515625</v>
       </c>
       <c r="D13" t="n">
-        <v>3.42894160746995</v>
+        <v>3.43032090819701</v>
       </c>
       <c r="E13" t="n">
-        <v>4.20633508319245</v>
+        <v>4.20568022596357</v>
       </c>
       <c r="F13" t="n">
-        <v>1.02171418483538</v>
+        <v>1.02485778161454</v>
       </c>
       <c r="G13" t="n">
-        <v>0.889793930808562</v>
+        <v>0.893234085101655</v>
       </c>
       <c r="H13" t="n">
-        <v>3.77572841486234</v>
+        <v>3.78593285832347</v>
       </c>
       <c r="I13" t="n">
-        <v>4.40557892406464</v>
+        <v>4.40753045404208</v>
       </c>
       <c r="J13" t="n">
-        <v>2.8074572395902</v>
+        <v>2.80961915029372</v>
       </c>
       <c r="K13" t="n">
-        <v>2.8230232251833</v>
+        <v>2.82494563187839</v>
       </c>
       <c r="L13" t="n">
-        <v>0.358502750005567</v>
+        <v>0.36249831134327</v>
       </c>
     </row>
     <row r="14">
@@ -1076,37 +1067,37 @@
         <v>24</v>
       </c>
       <c r="B14" t="n">
-        <v>0.833056386396367</v>
+        <v>0.832337185106477</v>
       </c>
       <c r="C14" t="n">
-        <v>0.753984876209793</v>
+        <v>0.754766949152542</v>
       </c>
       <c r="D14" t="n">
-        <v>0.670151454228656</v>
+        <v>0.670421024403325</v>
       </c>
       <c r="E14" t="n">
-        <v>1.06771065041374</v>
+        <v>1.06754442541645</v>
       </c>
       <c r="F14" t="n">
-        <v>7.05048989319446</v>
+        <v>7.07218274785842</v>
       </c>
       <c r="G14" t="n">
-        <v>7.19139423183337</v>
+        <v>7.21919786690368</v>
       </c>
       <c r="H14" t="n">
-        <v>0.498975318542279</v>
+        <v>0.500323870362511</v>
       </c>
       <c r="I14" t="n">
-        <v>0.402922293557671</v>
+        <v>0.403100775193798</v>
       </c>
       <c r="J14" t="n">
-        <v>0.417710944026733</v>
+        <v>0.41803260654331</v>
       </c>
       <c r="K14" t="n">
-        <v>0.47855292619748</v>
+        <v>0.478878808514377</v>
       </c>
       <c r="L14" t="n">
-        <v>1.77247322363001</v>
+        <v>1.79222767595803</v>
       </c>
     </row>
     <row r="15">
@@ -1114,37 +1105,37 @@
         <v>25</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0509582364019054</v>
+        <v>0.0509142427059813</v>
       </c>
       <c r="C15" t="n">
-        <v>0.085980731497608</v>
+        <v>0.0860699152542373</v>
       </c>
       <c r="D15" t="n">
-        <v>0.158602510834115</v>
+        <v>0.158666309108787</v>
       </c>
       <c r="E15" t="n">
-        <v>0.111219859418098</v>
+        <v>0.111202544314214</v>
       </c>
       <c r="F15" t="n">
-        <v>0.655397652043428</v>
+        <v>0.657414170927684</v>
       </c>
       <c r="G15" t="n">
-        <v>0.644104561853959</v>
+        <v>0.646594822797467</v>
       </c>
       <c r="H15" t="n">
-        <v>0.12251626124922</v>
+        <v>0.122847378883652</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0708434801859641</v>
+        <v>0.070874861572536</v>
       </c>
       <c r="J15" t="n">
-        <v>0.272611352943763</v>
+        <v>0.272821280059845</v>
       </c>
       <c r="K15" t="n">
-        <v>0.228300478552926</v>
+        <v>0.228455945346308</v>
       </c>
       <c r="L15" t="n">
-        <v>1.14899018014206</v>
+        <v>1.16179583014365</v>
       </c>
     </row>
     <row r="16">
@@ -1152,37 +1143,37 @@
         <v>26</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0952697463166057</v>
+        <v>0.0951874972329216</v>
       </c>
       <c r="C16" t="n">
-        <v>0.121254877753037</v>
+        <v>0.121380649717514</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0826520126882009</v>
+        <v>0.0826852596764101</v>
       </c>
       <c r="E16" t="n">
-        <v>0.108995462229736</v>
+        <v>0.10897849342793</v>
       </c>
       <c r="F16" t="n">
-        <v>4.59661046870862</v>
+        <v>4.61075325940191</v>
       </c>
       <c r="G16" t="n">
-        <v>5.11963522875672</v>
+        <v>5.13942895233863</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0690546199768333</v>
+        <v>0.0692412499162404</v>
       </c>
       <c r="I16" t="n">
-        <v>0.152756254150985</v>
+        <v>0.152823920265781</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0967330607219804</v>
+        <v>0.0968075509889771</v>
       </c>
       <c r="K16" t="n">
-        <v>0.180006146551346</v>
+        <v>0.180128726138436</v>
       </c>
       <c r="L16" t="n">
-        <v>4.70061680286802</v>
+        <v>4.75300580897915</v>
       </c>
     </row>
     <row r="17">
@@ -1190,37 +1181,37 @@
         <v>27</v>
       </c>
       <c r="B17" t="n">
-        <v>0.190539492633211</v>
+        <v>0.190374994465843</v>
       </c>
       <c r="C17" t="n">
-        <v>0.198417072686788</v>
+        <v>0.198622881355932</v>
       </c>
       <c r="D17" t="n">
-        <v>0.203279274449359</v>
+        <v>0.203361044069009</v>
       </c>
       <c r="E17" t="n">
-        <v>0.29584482605214</v>
+        <v>0.295798767875809</v>
       </c>
       <c r="F17" t="n">
-        <v>0.123576661664754</v>
+        <v>0.123956880713637</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0774696208415414</v>
+        <v>0.0777691367625819</v>
       </c>
       <c r="H17" t="n">
-        <v>0.964537111289317</v>
+        <v>0.96714391012039</v>
       </c>
       <c r="I17" t="n">
-        <v>1.53420411777729</v>
+        <v>1.53488372093023</v>
       </c>
       <c r="J17" t="n">
-        <v>1.05087279602515</v>
+        <v>1.05168203119843</v>
       </c>
       <c r="K17" t="n">
-        <v>0.91759230803003</v>
+        <v>0.918217164949586</v>
       </c>
       <c r="L17" t="n">
-        <v>0.478745908392527</v>
+        <v>0.484081595893187</v>
       </c>
     </row>
     <row r="18">
@@ -1228,37 +1219,37 @@
         <v>28</v>
       </c>
       <c r="B18" t="n">
-        <v>0.392156862745098</v>
+        <v>0.391818302563421</v>
       </c>
       <c r="C18" t="n">
-        <v>0.418880486783218</v>
+        <v>0.419314971751412</v>
       </c>
       <c r="D18" t="n">
-        <v>0.314971183487468</v>
+        <v>0.315097881469563</v>
       </c>
       <c r="E18" t="n">
-        <v>0.342557167007741</v>
+        <v>0.342503836487779</v>
       </c>
       <c r="F18" t="n">
-        <v>1.05922852855504</v>
+        <v>1.06248754897404</v>
       </c>
       <c r="G18" t="n">
-        <v>0.976117222603422</v>
+        <v>0.979891123208532</v>
       </c>
       <c r="H18" t="n">
-        <v>0.49674775015593</v>
+        <v>0.498090281655536</v>
       </c>
       <c r="I18" t="n">
-        <v>0.327651095860084</v>
+        <v>0.327796234772979</v>
       </c>
       <c r="J18" t="n">
-        <v>0.430901815943367</v>
+        <v>0.431233636223625</v>
       </c>
       <c r="K18" t="n">
-        <v>0.311717961101111</v>
+        <v>0.311930233068998</v>
       </c>
       <c r="L18" t="n">
-        <v>0.236032866463292</v>
+        <v>0.238663484486874</v>
       </c>
     </row>
     <row r="19">
@@ -1266,37 +1257,37 @@
         <v>29</v>
       </c>
       <c r="B19" t="n">
-        <v>0.126287803256896</v>
+        <v>0.119537787222739</v>
       </c>
       <c r="C19" t="n">
-        <v>0.121254877753037</v>
+        <v>0.121380649717514</v>
       </c>
       <c r="D19" t="n">
-        <v>0.060313630880579</v>
+        <v>0.0603378921962993</v>
       </c>
       <c r="E19" t="n">
-        <v>0.133463831301717</v>
+        <v>0.133443053177057</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0110336305057816</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.017707341906638</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.519023434019424</v>
+        <v>0.518192580018315</v>
       </c>
       <c r="I19" t="n">
-        <v>0.301084790790348</v>
+        <v>0.299003322259136</v>
       </c>
       <c r="J19" t="n">
-        <v>1.05307127467792</v>
+        <v>1.04948185958505</v>
       </c>
       <c r="K19" t="n">
-        <v>1.09320806076305</v>
+        <v>1.08736243217714</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0155870760871986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1304,37 +1295,37 @@
         <v>30</v>
       </c>
       <c r="B20" t="n">
-        <v>0.163952586684391</v>
+        <v>0.163811041749679</v>
       </c>
       <c r="C20" t="n">
-        <v>0.163142926431359</v>
+        <v>0.163312146892655</v>
       </c>
       <c r="D20" t="n">
-        <v>0.498145914309967</v>
+        <v>0.498346294806472</v>
       </c>
       <c r="E20" t="n">
-        <v>0.349230358572827</v>
+        <v>0.349175989146632</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0794421396416277</v>
+        <v>0.0796865661730527</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0730427853648819</v>
+        <v>0.0733251860904344</v>
       </c>
       <c r="H20" t="n">
-        <v>4.70907956874276</v>
+        <v>4.7218065265462</v>
       </c>
       <c r="I20" t="n">
-        <v>2.90458268762453</v>
+        <v>2.90586932447398</v>
       </c>
       <c r="J20" t="n">
-        <v>4.92019522490437</v>
+        <v>4.92398407075752</v>
       </c>
       <c r="K20" t="n">
-        <v>4.21038767177416</v>
+        <v>4.21325483821365</v>
       </c>
       <c r="L20" t="n">
-        <v>0.153644035716671</v>
+        <v>0.155356419147116</v>
       </c>
     </row>
     <row r="21">
@@ -1342,37 +1333,37 @@
         <v>31</v>
       </c>
       <c r="B21" t="n">
-        <v>4.58181012518002</v>
+        <v>4.57785451808562</v>
       </c>
       <c r="C21" t="n">
-        <v>4.78626072003351</v>
+        <v>4.79122528248588</v>
       </c>
       <c r="D21" t="n">
-        <v>6.57195192780235</v>
+        <v>6.59470814338071</v>
       </c>
       <c r="E21" t="n">
-        <v>5.9636088619984</v>
+        <v>5.97602473144585</v>
       </c>
       <c r="F21" t="n">
-        <v>1.14529084650013</v>
+        <v>1.10675786351462</v>
       </c>
       <c r="G21" t="n">
-        <v>1.03145266606167</v>
+        <v>0.993222975224975</v>
       </c>
       <c r="H21" t="n">
-        <v>3.96507172770204</v>
+        <v>3.96461995488151</v>
       </c>
       <c r="I21" t="n">
-        <v>4.44985609918087</v>
+        <v>4.42524916943522</v>
       </c>
       <c r="J21" t="n">
-        <v>4.77729411247417</v>
+        <v>4.71716793909925</v>
       </c>
       <c r="K21" t="n">
-        <v>4.63625587215173</v>
+        <v>4.62623289326275</v>
       </c>
       <c r="L21" t="n">
-        <v>2.09312164599524</v>
+        <v>2.0984374296393</v>
       </c>
     </row>
     <row r="22">
@@ -1380,37 +1371,37 @@
         <v>32</v>
       </c>
       <c r="B22" t="n">
-        <v>0.578265204386839</v>
+        <v>0.447159870722097</v>
       </c>
       <c r="C22" t="n">
-        <v>0.665799510571221</v>
+        <v>0.531867937853107</v>
       </c>
       <c r="D22" t="n">
-        <v>0.46017066523701</v>
+        <v>1.11066416376151</v>
       </c>
       <c r="E22" t="n">
-        <v>0.600587240857728</v>
+        <v>0.960789982874808</v>
       </c>
       <c r="F22" t="n">
-        <v>0.99082001941919</v>
+        <v>0.0973946919892866</v>
       </c>
       <c r="G22" t="n">
-        <v>1.02702583058501</v>
+        <v>0.1355404955005</v>
       </c>
       <c r="H22" t="n">
-        <v>0.534616412723871</v>
+        <v>0.42661544303232</v>
       </c>
       <c r="I22" t="n">
-        <v>0.611025016603941</v>
+        <v>0.223698781838317</v>
       </c>
       <c r="J22" t="n">
-        <v>0.551818141845843</v>
+        <v>0.290422652966931</v>
       </c>
       <c r="K22" t="n">
-        <v>0.559775211836502</v>
+        <v>0.281176548118533</v>
       </c>
       <c r="L22" t="n">
-        <v>0.331782048141798</v>
+        <v>0.0630431845814383</v>
       </c>
     </row>
     <row r="23">
@@ -1418,37 +1409,37 @@
         <v>33</v>
       </c>
       <c r="B23" t="n">
-        <v>0.447546250138473</v>
+        <v>0.431664231637668</v>
       </c>
       <c r="C23" t="n">
-        <v>0.531316827972398</v>
+        <v>0.414901129943503</v>
       </c>
       <c r="D23" t="n">
-        <v>1.11021757583881</v>
+        <v>0.39107893090194</v>
       </c>
       <c r="E23" t="n">
-        <v>0.960939585372364</v>
+        <v>0.346951938260347</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0970959484508783</v>
+        <v>0.278902981605684</v>
       </c>
       <c r="G23" t="n">
-        <v>0.135018482038115</v>
+        <v>0.268859015664926</v>
       </c>
       <c r="H23" t="n">
-        <v>0.425465561792747</v>
+        <v>0.562864354157825</v>
       </c>
       <c r="I23" t="n">
-        <v>0.223599734336949</v>
+        <v>1.06533776301218</v>
       </c>
       <c r="J23" t="n">
-        <v>0.290199182165941</v>
+        <v>0.59844667884095</v>
       </c>
       <c r="K23" t="n">
-        <v>0.280985204372832</v>
+        <v>0.608483623662764</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0623483043487942</v>
+        <v>0.619174134281983</v>
       </c>
     </row>
     <row r="24">
@@ -1456,37 +1447,37 @@
         <v>34</v>
       </c>
       <c r="B24" t="n">
-        <v>0.432037221668328</v>
+        <v>4.21260016823837</v>
       </c>
       <c r="C24" t="n">
-        <v>0.41447121850129</v>
+        <v>3.64141949152542</v>
       </c>
       <c r="D24" t="n">
-        <v>0.390921681633382</v>
+        <v>1.11736837400554</v>
       </c>
       <c r="E24" t="n">
-        <v>0.347005961384465</v>
+        <v>0.713920334497253</v>
       </c>
       <c r="F24" t="n">
-        <v>0.278047488745697</v>
+        <v>0.0398432830865263</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2678235463379</v>
+        <v>0.0399955560493279</v>
       </c>
       <c r="H24" t="n">
-        <v>0.561347233360064</v>
+        <v>0.154117620781309</v>
       </c>
       <c r="I24" t="n">
-        <v>1.06486606154527</v>
+        <v>0.159468438538206</v>
       </c>
       <c r="J24" t="n">
-        <v>0.597986193554061</v>
+        <v>0.0814063496952762</v>
       </c>
       <c r="K24" t="n">
-        <v>0.608069543838082</v>
+        <v>0.215275794653252</v>
       </c>
       <c r="L24" t="n">
-        <v>0.612349417711372</v>
+        <v>0.0675462691943982</v>
       </c>
     </row>
     <row r="25">
@@ -1494,37 +1485,37 @@
         <v>35</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.27449417806703</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0198417072686788</v>
+        <v>0.388418079096045</v>
       </c>
       <c r="D25" t="n">
-        <v>0.00446767636152437</v>
+        <v>0.265933673013319</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0200195746952576</v>
+        <v>0.38476080332718</v>
       </c>
       <c r="F25" t="n">
-        <v>1.16294465530938</v>
+        <v>5.31907829205127</v>
       </c>
       <c r="G25" t="n">
-        <v>1.19303216095974</v>
+        <v>5.49050105543829</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.299300886734717</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0110692937790569</v>
+        <v>0.199335548172757</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.226617676178742</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0219519690916275</v>
+        <v>0.344880609801639</v>
       </c>
       <c r="L25" t="n">
-        <v>0.621256318332628</v>
+        <v>3.38181654433287</v>
       </c>
     </row>
     <row r="26">
@@ -1532,37 +1523,37 @@
         <v>36</v>
       </c>
       <c r="B26" t="n">
-        <v>4.21624016838374</v>
+        <v>1.70009297383451</v>
       </c>
       <c r="C26" t="n">
-        <v>3.63764633259111</v>
+        <v>1.38373940677966</v>
       </c>
       <c r="D26" t="n">
-        <v>1.11691909038109</v>
+        <v>1.41905783498704</v>
       </c>
       <c r="E26" t="n">
-        <v>0.714031497464187</v>
+        <v>1.54571536596757</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0397210698208138</v>
+        <v>6.32180091639551</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0398415192899356</v>
+        <v>5.73714031774247</v>
       </c>
       <c r="H26" t="n">
-        <v>0.153702218658113</v>
+        <v>3.68988854392352</v>
       </c>
       <c r="I26" t="n">
-        <v>0.159397830418419</v>
+        <v>2.87264673311185</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0813437101525744</v>
+        <v>1.66773008294647</v>
       </c>
       <c r="K26" t="n">
-        <v>0.21512929709795</v>
+        <v>1.66948575445379</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0668017546594224</v>
+        <v>5.23708740487234</v>
       </c>
     </row>
     <row r="27">
@@ -1570,37 +1561,37 @@
         <v>37</v>
       </c>
       <c r="B27" t="n">
-        <v>0.274731361471142</v>
+        <v>0.219152609908354</v>
       </c>
       <c r="C27" t="n">
-        <v>0.388015608809718</v>
+        <v>0.251588983050847</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2658267435107</v>
+        <v>0.207830517565031</v>
       </c>
       <c r="E27" t="n">
-        <v>0.384820713586618</v>
+        <v>0.224629139514712</v>
       </c>
       <c r="F27" t="n">
-        <v>5.30276282107865</v>
+        <v>0.796865661730527</v>
       </c>
       <c r="G27" t="n">
-        <v>5.46935523141282</v>
+        <v>0.893234085101655</v>
       </c>
       <c r="H27" t="n">
-        <v>0.298494163770828</v>
+        <v>0.0781756047441424</v>
       </c>
       <c r="I27" t="n">
-        <v>0.199247288023024</v>
+        <v>0.130675526024363</v>
       </c>
       <c r="J27" t="n">
-        <v>0.226443301235545</v>
+        <v>0.114408923896064</v>
       </c>
       <c r="K27" t="n">
-        <v>0.344645914738552</v>
+        <v>0.138391582277091</v>
       </c>
       <c r="L27" t="n">
-        <v>3.34454118328175</v>
+        <v>1.02445174944837</v>
       </c>
     </row>
     <row r="28">
@@ -1608,37 +1599,37 @@
         <v>38</v>
       </c>
       <c r="B28" t="n">
-        <v>1.70156198072449</v>
+        <v>1.25293310311241</v>
       </c>
       <c r="C28" t="n">
-        <v>1.38230560638462</v>
+        <v>1.41905014124294</v>
       </c>
       <c r="D28" t="n">
-        <v>1.41848724478399</v>
+        <v>1.68499150800036</v>
       </c>
       <c r="E28" t="n">
-        <v>1.54595604591156</v>
+        <v>1.4990102973556</v>
       </c>
       <c r="F28" t="n">
-        <v>6.30240974490246</v>
+        <v>0.506895101489696</v>
       </c>
       <c r="G28" t="n">
-        <v>5.71504460036743</v>
+        <v>0.468836795911565</v>
       </c>
       <c r="H28" t="n">
-        <v>3.67994297424931</v>
+        <v>0.944808023050635</v>
       </c>
       <c r="I28" t="n">
-        <v>2.87137480628736</v>
+        <v>0.879291251384275</v>
       </c>
       <c r="J28" t="n">
-        <v>1.66644681880139</v>
+        <v>1.17929198477481</v>
       </c>
       <c r="K28" t="n">
-        <v>1.66834965096369</v>
+        <v>1.17303341168201</v>
       </c>
       <c r="L28" t="n">
-        <v>5.17936271126055</v>
+        <v>1.17980816859549</v>
       </c>
     </row>
     <row r="29">
@@ -1646,37 +1637,37 @@
         <v>39</v>
       </c>
       <c r="B29" t="n">
-        <v>0.219341974077767</v>
+        <v>0.0863328463275335</v>
       </c>
       <c r="C29" t="n">
-        <v>0.251328292069931</v>
+        <v>0.0640007062146893</v>
       </c>
       <c r="D29" t="n">
-        <v>0.207746950810883</v>
+        <v>0.0581031554482882</v>
       </c>
       <c r="E29" t="n">
-        <v>0.224664116024557</v>
+        <v>0.0733936792473812</v>
       </c>
       <c r="F29" t="n">
-        <v>0.794421396416277</v>
+        <v>0.0819000819000819</v>
       </c>
       <c r="G29" t="n">
-        <v>0.889793930808562</v>
+        <v>0.0755471614265082</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0779648935222311</v>
+        <v>0.0647740725022894</v>
       </c>
       <c r="I29" t="n">
-        <v>0.130617666592871</v>
+        <v>0.115171650055371</v>
       </c>
       <c r="J29" t="n">
-        <v>0.114320889944159</v>
+        <v>0.0726056632417329</v>
       </c>
       <c r="K29" t="n">
-        <v>0.138297405277253</v>
+        <v>0.10544120554445</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01315994566791</v>
+        <v>1.00418786869005</v>
       </c>
     </row>
     <row r="30">
@@ -1684,37 +1675,37 @@
         <v>40</v>
       </c>
       <c r="B30" t="n">
-        <v>1.39138141132159</v>
+        <v>2.99065834329482</v>
       </c>
       <c r="C30" t="n">
-        <v>1.55206243523887</v>
+        <v>2.51588983050847</v>
       </c>
       <c r="D30" t="n">
-        <v>1.83844882276728</v>
+        <v>3.59792616429785</v>
       </c>
       <c r="E30" t="n">
-        <v>1.68164427440164</v>
+        <v>2.64439650379201</v>
       </c>
       <c r="F30" t="n">
-        <v>0.549474799187925</v>
+        <v>1.47198795847444</v>
       </c>
       <c r="G30" t="n">
-        <v>0.502445826600854</v>
+        <v>1.36207088101322</v>
       </c>
       <c r="H30" t="n">
-        <v>1.0402744364252</v>
+        <v>2.07053673136629</v>
       </c>
       <c r="I30" t="n">
-        <v>0.949745406243082</v>
+        <v>3.61018826135105</v>
       </c>
       <c r="J30" t="n">
-        <v>1.31029327705228</v>
+        <v>2.38058568568348</v>
       </c>
       <c r="K30" t="n">
-        <v>1.2907757825877</v>
+        <v>2.23403554247304</v>
       </c>
       <c r="L30" t="n">
-        <v>1.27814023915028</v>
+        <v>1.3576800108074</v>
       </c>
     </row>
     <row r="31">
@@ -1722,37 +1713,37 @@
         <v>41</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0864074443336657</v>
+        <v>0.695090096072962</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0970039022024295</v>
+        <v>0.582627118644068</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0781843363266765</v>
+        <v>0.855904174488245</v>
       </c>
       <c r="E31" t="n">
-        <v>0.106771065041374</v>
+        <v>0.631630451704735</v>
       </c>
       <c r="F31" t="n">
-        <v>0.139023744372848</v>
+        <v>1.24842287004449</v>
       </c>
       <c r="G31" t="n">
-        <v>0.115097722393147</v>
+        <v>1.28207976891457</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0645994832041344</v>
+        <v>0.484688749413683</v>
       </c>
       <c r="I31" t="n">
-        <v>0.115120655302192</v>
+        <v>0.606866002214839</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0527634876665348</v>
+        <v>0.743658005324415</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0965886640031611</v>
+        <v>0.546976253761835</v>
       </c>
       <c r="L31" t="n">
-        <v>1.43401100002227</v>
+        <v>0.950150853334534</v>
       </c>
     </row>
     <row r="32">
@@ -1760,37 +1751,37 @@
         <v>42</v>
       </c>
       <c r="B32" t="n">
-        <v>2.99324249473801</v>
+        <v>0.531279054323283</v>
       </c>
       <c r="C32" t="n">
-        <v>2.51328292069931</v>
+        <v>0.494350282485876</v>
       </c>
       <c r="D32" t="n">
-        <v>3.59647947102712</v>
+        <v>0.954232591400733</v>
       </c>
       <c r="E32" t="n">
-        <v>2.64480825696236</v>
+        <v>0.725040588928675</v>
       </c>
       <c r="F32" t="n">
-        <v>1.46747285726896</v>
+        <v>0.369657126413883</v>
       </c>
       <c r="G32" t="n">
-        <v>1.35682507359614</v>
+        <v>0.42439728919009</v>
       </c>
       <c r="H32" t="n">
-        <v>2.06495589414595</v>
+        <v>0.779522458734449</v>
       </c>
       <c r="I32" t="n">
-        <v>3.60858977197255</v>
+        <v>1.37098560354374</v>
       </c>
       <c r="J32" t="n">
-        <v>2.37875390229961</v>
+        <v>0.93727310730237</v>
       </c>
       <c r="K32" t="n">
-        <v>2.23251525661852</v>
+        <v>0.803989192276432</v>
       </c>
       <c r="L32" t="n">
-        <v>1.34271526865439</v>
+        <v>1.32615841851668</v>
       </c>
     </row>
     <row r="33">
@@ -1798,37 +1789,37 @@
         <v>43</v>
       </c>
       <c r="B33" t="n">
-        <v>0.704553007643735</v>
+        <v>8.25474830654801</v>
       </c>
       <c r="C33" t="n">
-        <v>0.593046583919399</v>
+        <v>8.54519774011299</v>
       </c>
       <c r="D33" t="n">
-        <v>0.855560023231917</v>
+        <v>8.07186913381604</v>
       </c>
       <c r="E33" t="n">
-        <v>0.631728801494795</v>
+        <v>8.84282632386629</v>
       </c>
       <c r="F33" t="n">
-        <v>1.25562715155795</v>
+        <v>0.478119397038316</v>
       </c>
       <c r="G33" t="n">
-        <v>1.28378228823126</v>
+        <v>0.448839017886901</v>
       </c>
       <c r="H33" t="n">
-        <v>0.49674775015593</v>
+        <v>2.81432177078913</v>
       </c>
       <c r="I33" t="n">
-        <v>0.622094310382998</v>
+        <v>1.45957918050941</v>
       </c>
       <c r="J33" t="n">
-        <v>0.776062964428615</v>
+        <v>1.79534003652285</v>
       </c>
       <c r="K33" t="n">
-        <v>0.572946393291478</v>
+        <v>1.93089207653274</v>
       </c>
       <c r="L33" t="n">
-        <v>0.970852167716939</v>
+        <v>0.35349214211735</v>
       </c>
     </row>
     <row r="34">
@@ -1836,37 +1827,37 @@
         <v>44</v>
       </c>
       <c r="B34" t="n">
-        <v>0.531738118976404</v>
+        <v>0.345331385310134</v>
       </c>
       <c r="C34" t="n">
-        <v>0.493838047576005</v>
+        <v>0.333245056497175</v>
       </c>
       <c r="D34" t="n">
-        <v>0.953848903185453</v>
+        <v>0.315097881469563</v>
       </c>
       <c r="E34" t="n">
-        <v>0.725153483405997</v>
+        <v>0.275782309899251</v>
       </c>
       <c r="F34" t="n">
-        <v>0.368523258893106</v>
+        <v>0.376297673594971</v>
       </c>
       <c r="G34" t="n">
-        <v>0.422762788020983</v>
+        <v>0.335518275747139</v>
       </c>
       <c r="H34" t="n">
-        <v>0.777421366835962</v>
+        <v>0.544995644502021</v>
       </c>
       <c r="I34" t="n">
-        <v>1.37037856984724</v>
+        <v>1.07641196013289</v>
       </c>
       <c r="J34" t="n">
-        <v>0.936551906080992</v>
+        <v>0.56104376141339</v>
       </c>
       <c r="K34" t="n">
-        <v>0.803442068753567</v>
+        <v>0.492058959207434</v>
       </c>
       <c r="L34" t="n">
-        <v>1.31154111647999</v>
+        <v>0.601161795830144</v>
       </c>
     </row>
     <row r="35">
@@ -1874,37 +1865,37 @@
         <v>45</v>
       </c>
       <c r="B35" t="n">
-        <v>1.07012296444001</v>
+        <v>0.438305219816709</v>
       </c>
       <c r="C35" t="n">
-        <v>1.11334024118698</v>
+        <v>0.406073446327684</v>
       </c>
       <c r="D35" t="n">
-        <v>1.04096859223518</v>
+        <v>0.429069455618128</v>
       </c>
       <c r="E35" t="n">
-        <v>1.43696058368182</v>
+        <v>0.438138024598003</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0308941654161885</v>
+        <v>1.49190960001771</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0354146838132761</v>
+        <v>1.3131874236196</v>
       </c>
       <c r="H35" t="n">
-        <v>0.305176868929876</v>
+        <v>0.815259878046057</v>
       </c>
       <c r="I35" t="n">
-        <v>0.221385875581138</v>
+        <v>1.49944629014396</v>
       </c>
       <c r="J35" t="n">
-        <v>0.272611352943763</v>
+        <v>0.712855602737014</v>
       </c>
       <c r="K35" t="n">
-        <v>0.254642841462879</v>
+        <v>0.628253849702348</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0578948540381661</v>
+        <v>1.71792677984419</v>
       </c>
     </row>
     <row r="36">
@@ -1912,37 +1903,37 @@
         <v>46</v>
       </c>
       <c r="B36" t="n">
-        <v>8.26188102359588</v>
+        <v>1.37911187851419</v>
       </c>
       <c r="C36" t="n">
-        <v>8.5363433938138</v>
+        <v>1.53381002824859</v>
       </c>
       <c r="D36" t="n">
-        <v>8.06862350891301</v>
+        <v>3.73201036917851</v>
       </c>
       <c r="E36" t="n">
-        <v>8.84420322092713</v>
+        <v>0.442586126370571</v>
       </c>
       <c r="F36" t="n">
-        <v>0.476652837849766</v>
+        <v>0.121743364986608</v>
       </c>
       <c r="G36" t="n">
-        <v>0.44711038314261</v>
+        <v>0.0844350627708032</v>
       </c>
       <c r="H36" t="n">
-        <v>2.80673616680032</v>
+        <v>0.893435482790199</v>
       </c>
       <c r="I36" t="n">
-        <v>1.4589329200797</v>
+        <v>4.26356589147287</v>
       </c>
       <c r="J36" t="n">
-        <v>1.79395858066218</v>
+        <v>4.32993773514334</v>
       </c>
       <c r="K36" t="n">
-        <v>1.92957808315406</v>
+        <v>3.69922896118446</v>
       </c>
       <c r="L36" t="n">
-        <v>0.34959584938431</v>
+        <v>0.263430449858153</v>
       </c>
     </row>
     <row r="37">
@@ -1950,37 +1941,37 @@
         <v>47</v>
       </c>
       <c r="B37" t="n">
-        <v>0.638085742771685</v>
+        <v>0.203656970823925</v>
       </c>
       <c r="C37" t="n">
-        <v>0.610683657047113</v>
+        <v>0.187588276836158</v>
       </c>
       <c r="D37" t="n">
-        <v>0.721529732386186</v>
+        <v>0.243586305533208</v>
       </c>
       <c r="E37" t="n">
-        <v>0.789661001868494</v>
+        <v>0.173475969130174</v>
       </c>
       <c r="F37" t="n">
-        <v>0.375143437196575</v>
+        <v>0.447130176859907</v>
       </c>
       <c r="G37" t="n">
-        <v>0.334226078487793</v>
+        <v>0.357738029107877</v>
       </c>
       <c r="H37" t="n">
-        <v>0.543526686269268</v>
+        <v>0.227826048111501</v>
       </c>
       <c r="I37" t="n">
-        <v>1.13792340048705</v>
+        <v>0.267995570321152</v>
       </c>
       <c r="J37" t="n">
-        <v>0.617772501429011</v>
+        <v>0.2486193923126</v>
       </c>
       <c r="K37" t="n">
-        <v>0.559775211836502</v>
+        <v>0.237242712475013</v>
       </c>
       <c r="L37" t="n">
-        <v>0.632389944109199</v>
+        <v>1.3914531454046</v>
       </c>
     </row>
     <row r="38">
@@ -1988,37 +1979,37 @@
         <v>48</v>
       </c>
       <c r="B38" t="n">
-        <v>0.438683948155533</v>
+        <v>1.03378049320406</v>
       </c>
       <c r="C38" t="n">
-        <v>0.405652681937432</v>
+        <v>1.14980579096045</v>
       </c>
       <c r="D38" t="n">
-        <v>0.42889693070634</v>
+        <v>1.26262626262626</v>
       </c>
       <c r="E38" t="n">
-        <v>0.438206246107305</v>
+        <v>1.4434090251985</v>
       </c>
       <c r="F38" t="n">
-        <v>1.48733339217936</v>
+        <v>1.21300661841202</v>
       </c>
       <c r="G38" t="n">
-        <v>1.30812988335289</v>
+        <v>1.06432618597934</v>
       </c>
       <c r="H38" t="n">
-        <v>0.813062461017553</v>
+        <v>1.67965870764557</v>
       </c>
       <c r="I38" t="n">
-        <v>1.4987823776843</v>
+        <v>1.8250276854928</v>
       </c>
       <c r="J38" t="n">
-        <v>0.712307083498219</v>
+        <v>1.33550416932521</v>
       </c>
       <c r="K38" t="n">
-        <v>0.627826316020547</v>
+        <v>1.30483491861257</v>
       </c>
       <c r="L38" t="n">
-        <v>1.69899129350464</v>
+        <v>0.452560003602468</v>
       </c>
     </row>
     <row r="39">
@@ -2026,37 +2017,37 @@
         <v>49</v>
       </c>
       <c r="B39" t="n">
-        <v>0.968206491636203</v>
+        <v>0.0265639527161642</v>
       </c>
       <c r="C39" t="n">
-        <v>1.01192707070262</v>
+        <v>0.033103813559322</v>
       </c>
       <c r="D39" t="n">
-        <v>2.60465531876871</v>
+        <v>0.0245821042281219</v>
       </c>
       <c r="E39" t="n">
-        <v>1.60823916718569</v>
+        <v>0.273558259012966</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0926824962485656</v>
+        <v>0.0686189875379065</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0708293676265522</v>
+        <v>0.0777691367625819</v>
       </c>
       <c r="H39" t="n">
-        <v>2.2654370489174</v>
+        <v>0.330571128632374</v>
       </c>
       <c r="I39" t="n">
-        <v>1.4390081912774</v>
+        <v>0.155038759689922</v>
       </c>
       <c r="J39" t="n">
-        <v>4.55085081123862</v>
+        <v>0.103408065829135</v>
       </c>
       <c r="K39" t="n">
-        <v>4.00842955613119</v>
+        <v>0.0988511301979219</v>
       </c>
       <c r="L39" t="n">
-        <v>0.182591462735755</v>
+        <v>2.33710091412618</v>
       </c>
     </row>
     <row r="40">
@@ -2064,37 +2055,37 @@
         <v>50</v>
       </c>
       <c r="B40" t="n">
-        <v>0.846349839370777</v>
+        <v>0.624252888829858</v>
       </c>
       <c r="C40" t="n">
-        <v>0.912718534359223</v>
+        <v>0.723870056497175</v>
       </c>
       <c r="D40" t="n">
-        <v>1.01639637224679</v>
+        <v>0.876016805220345</v>
       </c>
       <c r="E40" t="n">
-        <v>0.820802562505561</v>
+        <v>0.47817094055112</v>
       </c>
       <c r="F40" t="n">
-        <v>0.412657780916233</v>
+        <v>0.956238794076632</v>
       </c>
       <c r="G40" t="n">
-        <v>0.398415192899356</v>
+        <v>0.977669147872459</v>
       </c>
       <c r="H40" t="n">
-        <v>0.639312126882295</v>
+        <v>0.285899354492864</v>
       </c>
       <c r="I40" t="n">
-        <v>0.367500553464689</v>
+        <v>0.188261351052049</v>
       </c>
       <c r="J40" t="n">
-        <v>0.635360330651189</v>
+        <v>0.473036896877956</v>
       </c>
       <c r="K40" t="n">
-        <v>0.698072617113755</v>
+        <v>0.423961513959976</v>
       </c>
       <c r="L40" t="n">
-        <v>0.489879534169098</v>
+        <v>2.44742648714369</v>
       </c>
     </row>
     <row r="41">
@@ -2102,37 +2093,37 @@
         <v>51</v>
       </c>
       <c r="B41" t="n">
-        <v>1.38030353384292</v>
+        <v>0.256784876256254</v>
       </c>
       <c r="C41" t="n">
-        <v>1.53222072797019</v>
+        <v>0.28027895480226</v>
       </c>
       <c r="D41" t="n">
-        <v>3.73050976187285</v>
+        <v>0.210065254313042</v>
       </c>
       <c r="E41" t="n">
-        <v>0.442655040484029</v>
+        <v>0.249093699263839</v>
       </c>
       <c r="F41" t="n">
-        <v>0.121369935563598</v>
+        <v>1.23956880713637</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0841098740565307</v>
+        <v>1.16209310076658</v>
       </c>
       <c r="H41" t="n">
-        <v>0.891027354539784</v>
+        <v>0.388644435013737</v>
       </c>
       <c r="I41" t="n">
-        <v>4.26167810493691</v>
+        <v>0.256921373200443</v>
       </c>
       <c r="J41" t="n">
-        <v>4.32660598865585</v>
+        <v>0.380629689115751</v>
       </c>
       <c r="K41" t="n">
-        <v>3.69671159503007</v>
+        <v>0.29435669881159</v>
       </c>
       <c r="L41" t="n">
-        <v>0.260526843171747</v>
+        <v>0.326473634439591</v>
       </c>
     </row>
     <row r="42">
@@ -2140,37 +2131,37 @@
         <v>52</v>
       </c>
       <c r="B42" t="n">
-        <v>0.203832945607622</v>
+        <v>9.26196484703591</v>
       </c>
       <c r="C42" t="n">
-        <v>0.187393901981966</v>
+        <v>9.79872881355932</v>
       </c>
       <c r="D42" t="n">
-        <v>0.243488361703078</v>
+        <v>4.26387771520515</v>
       </c>
       <c r="E42" t="n">
-        <v>0.173502980692232</v>
+        <v>4.88623979716656</v>
       </c>
       <c r="F42" t="n">
-        <v>0.445758672433578</v>
+        <v>10.6647187728269</v>
       </c>
       <c r="G42" t="n">
-        <v>0.356360255871091</v>
+        <v>11.8542384179536</v>
       </c>
       <c r="H42" t="n">
-        <v>0.227211975407645</v>
+        <v>2.78081794018449</v>
       </c>
       <c r="I42" t="n">
-        <v>0.267876909453177</v>
+        <v>2.06866002214839</v>
       </c>
       <c r="J42" t="n">
-        <v>0.248428087763268</v>
+        <v>3.0934412884205</v>
       </c>
       <c r="K42" t="n">
-        <v>0.237081266189577</v>
+        <v>2.96773059771983</v>
       </c>
       <c r="L42" t="n">
-        <v>1.3761161459841</v>
+        <v>5.32714909713154</v>
       </c>
     </row>
     <row r="43">
@@ -2178,37 +2169,37 @@
         <v>53</v>
       </c>
       <c r="B43" t="n">
-        <v>1.03467375650825</v>
+        <v>0.613184575198123</v>
       </c>
       <c r="C43" t="n">
-        <v>1.1486143874424</v>
+        <v>0.737111581920904</v>
       </c>
       <c r="D43" t="n">
-        <v>1.26211857213063</v>
+        <v>0.598909448466971</v>
       </c>
       <c r="E43" t="n">
-        <v>1.44363377524691</v>
+        <v>0.627182349932166</v>
       </c>
       <c r="F43" t="n">
-        <v>1.20928590343367</v>
+        <v>0.58436815193572</v>
       </c>
       <c r="G43" t="n">
-        <v>1.06022709665995</v>
+        <v>0.502166425952672</v>
       </c>
       <c r="H43" t="n">
-        <v>1.67513142653479</v>
+        <v>0.737084273301914</v>
       </c>
       <c r="I43" t="n">
-        <v>1.82421961478858</v>
+        <v>1.17829457364341</v>
       </c>
       <c r="J43" t="n">
-        <v>1.33447654223277</v>
+        <v>0.708455259510242</v>
       </c>
       <c r="K43" t="n">
-        <v>1.30394696404267</v>
+        <v>0.724908288118094</v>
       </c>
       <c r="L43" t="n">
-        <v>0.44757175621813</v>
+        <v>0.670959607331022</v>
       </c>
     </row>
     <row r="44">
@@ -2216,37 +2207,37 @@
         <v>54</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0265869059488202</v>
+        <v>0.23686191171913</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0330695121144646</v>
+        <v>0.180967514124294</v>
       </c>
       <c r="D44" t="n">
-        <v>0.024572219988384</v>
+        <v>0.18548315008492</v>
       </c>
       <c r="E44" t="n">
-        <v>0.27360085416852</v>
+        <v>0.391432955986033</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0684085091358461</v>
+        <v>0.993868561436129</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0774696208415414</v>
+        <v>1.01099877791357</v>
       </c>
       <c r="H44" t="n">
-        <v>0.32968012117972</v>
+        <v>0.323870362511447</v>
       </c>
       <c r="I44" t="n">
-        <v>0.154970112906797</v>
+        <v>0.159468438538206</v>
       </c>
       <c r="J44" t="n">
-        <v>0.103328496680297</v>
+        <v>0.446634837517326</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0987838609123238</v>
+        <v>0.406387979702568</v>
       </c>
       <c r="L44" t="n">
-        <v>2.31134071121601</v>
+        <v>0.218399603728554</v>
       </c>
     </row>
     <row r="45">
@@ -2254,37 +2245,37 @@
         <v>55</v>
       </c>
       <c r="B45" t="n">
-        <v>0.624792289797275</v>
+        <v>2.67631823615354</v>
       </c>
       <c r="C45" t="n">
-        <v>0.723119998236293</v>
+        <v>2.48499293785311</v>
       </c>
       <c r="D45" t="n">
-        <v>0.875664566858777</v>
+        <v>2.26378832573523</v>
       </c>
       <c r="E45" t="n">
-        <v>0.491591778627992</v>
+        <v>2.64217245290572</v>
       </c>
       <c r="F45" t="n">
-        <v>0.997440197722659</v>
+        <v>3.79617947185515</v>
       </c>
       <c r="G45" t="n">
-        <v>1.02481241284668</v>
+        <v>3.96622597489168</v>
       </c>
       <c r="H45" t="n">
-        <v>0.285128753452731</v>
+        <v>2.38547273904983</v>
       </c>
       <c r="I45" t="n">
-        <v>0.188177994243967</v>
+        <v>2.43632336655592</v>
       </c>
       <c r="J45" t="n">
-        <v>0.47267291034604</v>
+        <v>3.91410530021342</v>
       </c>
       <c r="K45" t="n">
-        <v>0.423673003468411</v>
+        <v>3.09294202930387</v>
       </c>
       <c r="L45" t="n">
-        <v>2.53623995190274</v>
+        <v>5.65137118926465</v>
       </c>
     </row>
     <row r="46">
@@ -2292,37 +2283,37 @@
         <v>56</v>
       </c>
       <c r="B46" t="n">
-        <v>0.265869059488202</v>
+        <v>0.128392438128127</v>
       </c>
       <c r="C46" t="n">
-        <v>0.293216340748253</v>
+        <v>0.200829802259887</v>
       </c>
       <c r="D46" t="n">
-        <v>0.232319170799267</v>
+        <v>0.116206310896576</v>
       </c>
       <c r="E46" t="n">
-        <v>0.27360085416852</v>
+        <v>0.197940528879301</v>
       </c>
       <c r="F46" t="n">
-        <v>1.26445405596257</v>
+        <v>2.1648183810346</v>
       </c>
       <c r="G46" t="n">
-        <v>1.19303216095974</v>
+        <v>2.50638817909121</v>
       </c>
       <c r="H46" t="n">
-        <v>0.478927203065134</v>
+        <v>0.0692412499162404</v>
       </c>
       <c r="I46" t="n">
-        <v>0.309940225813593</v>
+        <v>0.0465116279069767</v>
       </c>
       <c r="J46" t="n">
-        <v>0.459482038429407</v>
+        <v>0.0770060064685045</v>
       </c>
       <c r="K46" t="n">
-        <v>0.360012293102691</v>
+        <v>0.109834589108802</v>
       </c>
       <c r="L46" t="n">
-        <v>0.509920060566924</v>
+        <v>1.3689377223398</v>
       </c>
     </row>
     <row r="47">
@@ -2330,37 +2321,37 @@
         <v>57</v>
       </c>
       <c r="B47" t="n">
-        <v>1.77246039658801</v>
+        <v>10.787178465489</v>
       </c>
       <c r="C47" t="n">
-        <v>1.62261072774973</v>
+        <v>10.8624646892655</v>
       </c>
       <c r="D47" t="n">
-        <v>1.33583523209579</v>
+        <v>10.3244837758112</v>
       </c>
       <c r="E47" t="n">
-        <v>1.57709760654863</v>
+        <v>10.0393657006872</v>
       </c>
       <c r="F47" t="n">
-        <v>3.06955600670845</v>
+        <v>2.71819731279191</v>
       </c>
       <c r="G47" t="n">
-        <v>3.24487040439142</v>
+        <v>2.36640373291856</v>
       </c>
       <c r="H47" t="n">
-        <v>1.55484273367192</v>
+        <v>12.7336892184673</v>
       </c>
       <c r="I47" t="n">
-        <v>1.54084569404472</v>
+        <v>8.43632336655592</v>
       </c>
       <c r="J47" t="n">
-        <v>2.25783757639713</v>
+        <v>14.5497348793206</v>
       </c>
       <c r="K47" t="n">
-        <v>1.81103745005927</v>
+        <v>13.3295257342442</v>
       </c>
       <c r="L47" t="n">
-        <v>3.48705159322185</v>
+        <v>4.29143963615076</v>
       </c>
     </row>
     <row r="48">
@@ -2368,37 +2359,37 @@
         <v>58</v>
       </c>
       <c r="B48" t="n">
-        <v>9.26996787415531</v>
+        <v>0.285562491698765</v>
       </c>
       <c r="C48" t="n">
-        <v>9.78857558588152</v>
+        <v>0.313382768361582</v>
       </c>
       <c r="D48" t="n">
-        <v>4.26216324889425</v>
+        <v>0.26816840976133</v>
       </c>
       <c r="E48" t="n">
-        <v>4.88700062283121</v>
+        <v>0.366968396236906</v>
       </c>
       <c r="F48" t="n">
-        <v>10.6320063553712</v>
+        <v>1.70662062553954</v>
       </c>
       <c r="G48" t="n">
-        <v>11.8085836339892</v>
+        <v>1.65314965003888</v>
       </c>
       <c r="H48" t="n">
-        <v>2.77332264100508</v>
+        <v>0.0625404837953139</v>
       </c>
       <c r="I48" t="n">
-        <v>2.06774407792783</v>
+        <v>0.0642303433001107</v>
       </c>
       <c r="J48" t="n">
-        <v>3.09106098579783</v>
+        <v>0.0506039471078744</v>
       </c>
       <c r="K48" t="n">
-        <v>2.96571102427888</v>
+        <v>0.0922610548513938</v>
       </c>
       <c r="L48" t="n">
-        <v>5.26843171747311</v>
+        <v>0.141847165308236</v>
       </c>
     </row>
     <row r="49">
@@ -2406,37 +2397,37 @@
         <v>59</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0731139913592556</v>
+        <v>1.87939965466861</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0992085363433938</v>
+        <v>1.3771186440678</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0692489836036278</v>
+        <v>1.75873782068472</v>
       </c>
       <c r="E49" t="n">
-        <v>0.111219859418098</v>
+        <v>1.61910904521495</v>
       </c>
       <c r="F49" t="n">
-        <v>1.01509400653191</v>
+        <v>1.04035239170374</v>
       </c>
       <c r="G49" t="n">
-        <v>0.973903804865092</v>
+        <v>1.1265414953894</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0512340728860376</v>
+        <v>1.78463737687342</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0110692937790569</v>
+        <v>3.00110741971207</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0351756584443565</v>
+        <v>2.01095685463466</v>
       </c>
       <c r="K49" t="n">
-        <v>0.0482943320015805</v>
+        <v>1.76833688465171</v>
       </c>
       <c r="L49" t="n">
-        <v>0.0133603509318845</v>
+        <v>2.47444499482145</v>
       </c>
     </row>
     <row r="50">
@@ -2444,37 +2435,37 @@
         <v>60</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6137144123186</v>
+        <v>0.108469473591004</v>
       </c>
       <c r="C50" t="n">
-        <v>0.749575607927864</v>
+        <v>0.0772422316384181</v>
       </c>
       <c r="D50" t="n">
-        <v>0.598668632444266</v>
+        <v>0.198891570572987</v>
       </c>
       <c r="E50" t="n">
-        <v>0.627280007118071</v>
+        <v>0.184596223561595</v>
       </c>
       <c r="F50" t="n">
-        <v>0.58257569070527</v>
+        <v>0.343094937689532</v>
       </c>
       <c r="G50" t="n">
-        <v>0.500232408862525</v>
+        <v>0.319964448394623</v>
       </c>
       <c r="H50" t="n">
-        <v>0.735097567495322</v>
+        <v>1.27984632909696</v>
       </c>
       <c r="I50" t="n">
-        <v>1.17777285809165</v>
+        <v>0.903654485049834</v>
       </c>
       <c r="J50" t="n">
-        <v>0.707910126192675</v>
+        <v>0.36522848782205</v>
       </c>
       <c r="K50" t="n">
-        <v>0.724414980023708</v>
+        <v>0.393207829009512</v>
       </c>
       <c r="L50" t="n">
-        <v>0.663564096283596</v>
+        <v>0.0540370153555185</v>
       </c>
     </row>
     <row r="51">
@@ -2482,37 +2473,37 @@
         <v>61</v>
       </c>
       <c r="B51" t="n">
-        <v>0.237066578043647</v>
+        <v>0.110683136317351</v>
       </c>
       <c r="C51" t="n">
-        <v>0.180779999559073</v>
+        <v>0.11475988700565</v>
       </c>
       <c r="D51" t="n">
-        <v>0.185408569003261</v>
+        <v>0.12291052114061</v>
       </c>
       <c r="E51" t="n">
-        <v>0.400391493905152</v>
+        <v>0.191268376220448</v>
       </c>
       <c r="F51" t="n">
-        <v>1.04378144584694</v>
+        <v>0.938530668260398</v>
       </c>
       <c r="G51" t="n">
-        <v>1.06244051439828</v>
+        <v>0.955449394511721</v>
       </c>
       <c r="H51" t="n">
-        <v>0.322997416020672</v>
+        <v>2.03926648946863</v>
       </c>
       <c r="I51" t="n">
-        <v>0.159397830418419</v>
+        <v>1.22259136212625</v>
       </c>
       <c r="J51" t="n">
-        <v>0.446291166512773</v>
+        <v>1.36410640029922</v>
       </c>
       <c r="K51" t="n">
-        <v>0.406111428195109</v>
+        <v>1.19939371306812</v>
       </c>
       <c r="L51" t="n">
-        <v>0.249393217395177</v>
+        <v>1.18205971090197</v>
       </c>
     </row>
     <row r="52">
@@ -2520,37 +2511,37 @@
         <v>62</v>
       </c>
       <c r="B52" t="n">
-        <v>0.906170377755622</v>
+        <v>1.9679461637225</v>
       </c>
       <c r="C52" t="n">
-        <v>0.85980731497608</v>
+        <v>1.47422316384181</v>
       </c>
       <c r="D52" t="n">
-        <v>0.927042845016307</v>
+        <v>2.04254938768213</v>
       </c>
       <c r="E52" t="n">
-        <v>1.06548625322538</v>
+        <v>1.77256855636857</v>
       </c>
       <c r="F52" t="n">
-        <v>0.714979256774649</v>
+        <v>0.382938220776059</v>
       </c>
       <c r="G52" t="n">
-        <v>0.706080258527192</v>
+        <v>0.411065437173647</v>
       </c>
       <c r="H52" t="n">
-        <v>0.810834892631204</v>
+        <v>1.00958209555292</v>
       </c>
       <c r="I52" t="n">
-        <v>0.881115784812929</v>
+        <v>1.88261351052049</v>
       </c>
       <c r="J52" t="n">
-        <v>1.60049245921822</v>
+        <v>1.38610811643308</v>
       </c>
       <c r="K52" t="n">
-        <v>1.2315054660403</v>
+        <v>1.21696724732553</v>
       </c>
       <c r="L52" t="n">
-        <v>2.10202854661649</v>
+        <v>0.412032242085829</v>
       </c>
     </row>
     <row r="53">
@@ -2558,37 +2549,37 @@
         <v>63</v>
       </c>
       <c r="B53" t="n">
-        <v>0.128503378752631</v>
+        <v>0.980652587771727</v>
       </c>
       <c r="C53" t="n">
-        <v>0.198417072686788</v>
+        <v>0.955596751412429</v>
       </c>
       <c r="D53" t="n">
-        <v>0.116159585399634</v>
+        <v>1.1285420577456</v>
       </c>
       <c r="E53" t="n">
-        <v>0.19352255538749</v>
+        <v>1.26103685252319</v>
       </c>
       <c r="F53" t="n">
-        <v>2.03460146526613</v>
+        <v>1.84164508488833</v>
       </c>
       <c r="G53" t="n">
-        <v>2.33072887846123</v>
+        <v>1.91089878902344</v>
       </c>
       <c r="H53" t="n">
-        <v>0.057916778045086</v>
+        <v>2.19338411024994</v>
       </c>
       <c r="I53" t="n">
-        <v>0.046491033872039</v>
+        <v>2.22148394241417</v>
       </c>
       <c r="J53" t="n">
-        <v>0.0747482741942576</v>
+        <v>2.7194121141449</v>
       </c>
       <c r="K53" t="n">
-        <v>0.107564648548975</v>
+        <v>2.2560024602948</v>
       </c>
       <c r="L53" t="n">
-        <v>1.29372731523748</v>
+        <v>2.22677534110866</v>
       </c>
     </row>
     <row r="54">
@@ -2596,37 +2587,37 @@
         <v>64</v>
       </c>
       <c r="B54" t="n">
-        <v>9.14146449540268</v>
+        <v>1.06698543409926</v>
       </c>
       <c r="C54" t="n">
-        <v>9.1845058312573</v>
+        <v>1.06152895480226</v>
       </c>
       <c r="D54" t="n">
-        <v>6.96734128579726</v>
+        <v>1.28497363010637</v>
       </c>
       <c r="E54" t="n">
-        <v>7.61633597295133</v>
+        <v>1.12314569757356</v>
       </c>
       <c r="F54" t="n">
-        <v>1.75655397652043</v>
+        <v>0.374084157867942</v>
       </c>
       <c r="G54" t="n">
-        <v>1.51840456849421</v>
+        <v>0.395511609821131</v>
       </c>
       <c r="H54" t="n">
-        <v>9.17758175175978</v>
+        <v>0.507024636483438</v>
       </c>
       <c r="I54" t="n">
-        <v>6.01948195705114</v>
+        <v>0.369878183831672</v>
       </c>
       <c r="J54" t="n">
-        <v>9.17425141801873</v>
+        <v>0.609447536907879</v>
       </c>
       <c r="K54" t="n">
-        <v>8.51077841682399</v>
+        <v>0.542582870197483</v>
       </c>
       <c r="L54" t="n">
-        <v>2.18441737736311</v>
+        <v>0.513351645877426</v>
       </c>
     </row>
     <row r="55">
@@ -2634,37 +2625,37 @@
         <v>65</v>
       </c>
       <c r="B55" t="n">
-        <v>1.88102359587903</v>
+        <v>1.00943020321424</v>
       </c>
       <c r="C55" t="n">
-        <v>1.38671487466655</v>
+        <v>1.0107697740113</v>
       </c>
       <c r="D55" t="n">
-        <v>1.75803064825984</v>
+        <v>0.835791543756146</v>
       </c>
       <c r="E55" t="n">
-        <v>1.59711718124388</v>
+        <v>0.593821586637902</v>
       </c>
       <c r="F55" t="n">
-        <v>1.02171418483538</v>
+        <v>0.0929676605352281</v>
       </c>
       <c r="G55" t="n">
-        <v>1.07793443856659</v>
+        <v>0.0666592600822131</v>
       </c>
       <c r="H55" t="n">
-        <v>1.73304820457988</v>
+        <v>1.54564338522704</v>
       </c>
       <c r="I55" t="n">
-        <v>2.96878459154306</v>
+        <v>1.38205980066445</v>
       </c>
       <c r="J55" t="n">
-        <v>1.98962318075891</v>
+        <v>1.31130228157796</v>
       </c>
       <c r="K55" t="n">
-        <v>1.76493831496685</v>
+        <v>1.19500032950377</v>
       </c>
       <c r="L55" t="n">
-        <v>2.40931661804983</v>
+        <v>0.36474985364975</v>
       </c>
     </row>
     <row r="56">
@@ -2672,37 +2663,37 @@
         <v>66</v>
       </c>
       <c r="B56" t="n">
-        <v>0.248144455522322</v>
+        <v>1.078053747731</v>
       </c>
       <c r="C56" t="n">
-        <v>0.185189267841002</v>
+        <v>1.06152895480226</v>
       </c>
       <c r="D56" t="n">
-        <v>0.328374212572041</v>
+        <v>1.09055153302941</v>
       </c>
       <c r="E56" t="n">
-        <v>0.335883975442655</v>
+        <v>1.02528745857705</v>
       </c>
       <c r="F56" t="n">
-        <v>1.10777650278047</v>
+        <v>0.40950040950041</v>
       </c>
       <c r="G56" t="n">
-        <v>1.16425773036145</v>
+        <v>0.395511609821131</v>
       </c>
       <c r="H56" t="n">
-        <v>2.256526775372</v>
+        <v>1.04085233745058</v>
       </c>
       <c r="I56" t="n">
-        <v>1.40801416869604</v>
+        <v>0.850498338870432</v>
       </c>
       <c r="J56" t="n">
-        <v>0.600184672206833</v>
+        <v>1.13748872412048</v>
       </c>
       <c r="K56" t="n">
-        <v>0.621240725293059</v>
+        <v>1.0631988225732</v>
       </c>
       <c r="L56" t="n">
-        <v>0.104656082299762</v>
+        <v>0.927635430269735</v>
       </c>
     </row>
     <row r="57">
@@ -2710,37 +2701,37 @@
         <v>67</v>
       </c>
       <c r="B57" t="n">
-        <v>0.110778774786751</v>
+        <v>1.20423252313278</v>
       </c>
       <c r="C57" t="n">
-        <v>0.114640975330144</v>
+        <v>1.31091101694915</v>
       </c>
       <c r="D57" t="n">
-        <v>0.12286109994192</v>
+        <v>1.36989362653079</v>
       </c>
       <c r="E57" t="n">
-        <v>0.191298158199128</v>
+        <v>1.23657229277406</v>
       </c>
       <c r="F57" t="n">
-        <v>0.893724070968311</v>
+        <v>0.566660026119486</v>
       </c>
       <c r="G57" t="n">
-        <v>0.90307443723854</v>
+        <v>0.537718031329852</v>
       </c>
       <c r="H57" t="n">
-        <v>2.03376993673706</v>
+        <v>0.772821692613522</v>
       </c>
       <c r="I57" t="n">
-        <v>1.22205003320788</v>
+        <v>0.440753045404208</v>
       </c>
       <c r="J57" t="n">
-        <v>1.36305676471881</v>
+        <v>0.789861609205518</v>
       </c>
       <c r="K57" t="n">
-        <v>1.19857751240286</v>
+        <v>0.830349493662544</v>
       </c>
       <c r="L57" t="n">
-        <v>1.16903070653989</v>
+        <v>0.977169361012293</v>
       </c>
     </row>
     <row r="58">
@@ -2748,37 +2739,37 @@
         <v>68</v>
       </c>
       <c r="B58" t="n">
-        <v>1.96078431372549</v>
+        <v>0.137247089033515</v>
       </c>
       <c r="C58" t="n">
-        <v>1.46167243545934</v>
+        <v>0.158898305084746</v>
       </c>
       <c r="D58" t="n">
-        <v>2.04172809721664</v>
+        <v>0.227943148297131</v>
       </c>
       <c r="E58" t="n">
-        <v>1.77284455912448</v>
+        <v>0.200164579765585</v>
       </c>
       <c r="F58" t="n">
-        <v>0.359696354488481</v>
+        <v>1.21964716559311</v>
       </c>
       <c r="G58" t="n">
-        <v>0.396201775161026</v>
+        <v>1.26874791689812</v>
       </c>
       <c r="H58" t="n">
-        <v>0.99349550031186</v>
+        <v>0.252395523888231</v>
       </c>
       <c r="I58" t="n">
-        <v>1.86628293114899</v>
+        <v>0.132890365448505</v>
       </c>
       <c r="J58" t="n">
-        <v>1.35206437145495</v>
+        <v>0.178213900684253</v>
       </c>
       <c r="K58" t="n">
-        <v>1.18979672476621</v>
+        <v>0.191112185049316</v>
       </c>
       <c r="L58" t="n">
-        <v>0.376316551248079</v>
+        <v>0.560634034313505</v>
       </c>
     </row>
     <row r="59">
@@ -2786,37 +2777,37 @@
         <v>69</v>
       </c>
       <c r="B59" t="n">
-        <v>0.981499944610613</v>
+        <v>0.14831540266525</v>
       </c>
       <c r="C59" t="n">
-        <v>0.954606583037545</v>
+        <v>0.194209039548023</v>
       </c>
       <c r="D59" t="n">
-        <v>1.1280882812849</v>
+        <v>0.241351568785197</v>
       </c>
       <c r="E59" t="n">
-        <v>1.26123320580123</v>
+        <v>0.262438004581545</v>
       </c>
       <c r="F59" t="n">
-        <v>1.83599611616206</v>
+        <v>2.58538636917015</v>
       </c>
       <c r="G59" t="n">
-        <v>1.90353925496359</v>
+        <v>2.7619153427397</v>
       </c>
       <c r="H59" t="n">
-        <v>2.18747215539517</v>
+        <v>0.343972660874227</v>
       </c>
       <c r="I59" t="n">
-        <v>2.22050033207881</v>
+        <v>0.374307862679956</v>
       </c>
       <c r="J59" t="n">
-        <v>2.71731961482654</v>
+        <v>0.226617676178742</v>
       </c>
       <c r="K59" t="n">
-        <v>2.25446722571015</v>
+        <v>0.397601212573864</v>
       </c>
       <c r="L59" t="n">
-        <v>2.20223117860562</v>
+        <v>8.42301976854145</v>
       </c>
     </row>
     <row r="60">
@@ -2824,37 +2815,37 @@
         <v>70</v>
       </c>
       <c r="B60" t="n">
-        <v>1.07898526642295</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>1.06042902180383</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>1.09011303221195</v>
+        <v>0.0111736837400554</v>
       </c>
       <c r="E60" t="n">
-        <v>1.02544710383486</v>
+        <v>0.0133443053177057</v>
       </c>
       <c r="F60" t="n">
-        <v>0.40824432871392</v>
+        <v>0.055337893175731</v>
       </c>
       <c r="G60" t="n">
-        <v>0.393988357422696</v>
+        <v>0.0555493834018442</v>
       </c>
       <c r="H60" t="n">
-        <v>1.03804686803885</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.85012176223157</v>
+        <v>0.026578073089701</v>
       </c>
       <c r="J60" t="n">
-        <v>1.13661346348327</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>1.06247530403477</v>
+        <v>0.0263603013861125</v>
       </c>
       <c r="L60" t="n">
-        <v>0.917410763989401</v>
+        <v>1.33066150312964</v>
       </c>
     </row>
     <row r="61">
@@ -2862,37 +2853,37 @@
         <v>71</v>
       </c>
       <c r="B61" t="n">
-        <v>0.137365680735571</v>
+        <v>0.23686191171913</v>
       </c>
       <c r="C61" t="n">
-        <v>0.15873365814943</v>
+        <v>0.311175847457627</v>
       </c>
       <c r="D61" t="n">
-        <v>0.227851494437743</v>
+        <v>0.364262089925807</v>
       </c>
       <c r="E61" t="n">
-        <v>0.200195746952576</v>
+        <v>0.467050686119698</v>
       </c>
       <c r="F61" t="n">
-        <v>1.21590608173713</v>
+        <v>1.42107709675277</v>
       </c>
       <c r="G61" t="n">
-        <v>1.26386152858629</v>
+        <v>1.43095211643151</v>
       </c>
       <c r="H61" t="n">
-        <v>0.251715227657489</v>
+        <v>1.08552411159009</v>
       </c>
       <c r="I61" t="n">
-        <v>0.132831525348683</v>
+        <v>1.35548172757475</v>
       </c>
       <c r="J61" t="n">
-        <v>0.178076770874555</v>
+        <v>1.04508151635828</v>
       </c>
       <c r="K61" t="n">
-        <v>0.190982131097159</v>
+        <v>0.913823781385234</v>
       </c>
       <c r="L61" t="n">
-        <v>0.554454563673206</v>
+        <v>1.63011662989148</v>
       </c>
     </row>
     <row r="62">
@@ -2900,37 +2891,37 @@
         <v>72</v>
       </c>
       <c r="B62" t="n">
-        <v>0.148443558214246</v>
+        <v>1.80856244742551</v>
       </c>
       <c r="C62" t="n">
-        <v>0.194007804404859</v>
+        <v>1.84939971751412</v>
       </c>
       <c r="D62" t="n">
-        <v>0.241254523522316</v>
+        <v>1.54867256637168</v>
       </c>
       <c r="E62" t="n">
-        <v>0.262478868226711</v>
+        <v>1.67693436825835</v>
       </c>
       <c r="F62" t="n">
-        <v>2.57745608615059</v>
+        <v>1.74646390862607</v>
       </c>
       <c r="G62" t="n">
-        <v>2.75127824874389</v>
+        <v>1.62870792134207</v>
       </c>
       <c r="H62" t="n">
-        <v>0.343045531497817</v>
+        <v>1.59031515936655</v>
       </c>
       <c r="I62" t="n">
-        <v>0.374142129732123</v>
+        <v>2.82834994462901</v>
       </c>
       <c r="J62" t="n">
-        <v>0.226443301235545</v>
+        <v>2.02635805592836</v>
       </c>
       <c r="K62" t="n">
-        <v>0.397330640558458</v>
+        <v>1.89574500801793</v>
       </c>
       <c r="L62" t="n">
-        <v>8.33017880602997</v>
+        <v>2.2785608141577</v>
       </c>
     </row>
     <row r="63">
@@ -2938,37 +2929,37 @@
         <v>73</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>2.26679063177934</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>2.19588629943503</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0111691909038109</v>
+        <v>2.26378832573523</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0133463831301717</v>
+        <v>2.52429775593266</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0551681525289081</v>
+        <v>0.29218407596786</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0553354434582439</v>
+        <v>0.237751360959893</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>0.531594112260168</v>
       </c>
       <c r="I63" t="n">
-        <v>0.0265663050697365</v>
+        <v>0.737541528239203</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>0.596246507227564</v>
       </c>
       <c r="K63" t="n">
-        <v>0.026342362909953</v>
+        <v>0.768842123761615</v>
       </c>
       <c r="L63" t="n">
-        <v>1.31599456679062</v>
+        <v>0.285945872922952</v>
       </c>
     </row>
     <row r="64">
@@ -2976,151 +2967,37 @@
         <v>74</v>
       </c>
       <c r="B64" t="n">
-        <v>0.199401794616152</v>
+        <v>18.5903395758622</v>
       </c>
       <c r="C64" t="n">
-        <v>0.282193170043431</v>
+        <v>18.0283368644068</v>
       </c>
       <c r="D64" t="n">
-        <v>0.328374212572041</v>
+        <v>19.8891570572987</v>
       </c>
       <c r="E64" t="n">
-        <v>0.402615891093514</v>
+        <v>22.4495696461535</v>
       </c>
       <c r="F64" t="n">
-        <v>1.1673581075117</v>
+        <v>21.2918077782943</v>
       </c>
       <c r="G64" t="n">
-        <v>1.13326988202483</v>
+        <v>20.8665703810688</v>
       </c>
       <c r="H64" t="n">
-        <v>0.944488995812171</v>
+        <v>22.9389560206384</v>
       </c>
       <c r="I64" t="n">
-        <v>1.2264777507195</v>
+        <v>21.7364341085271</v>
       </c>
       <c r="J64" t="n">
-        <v>0.883788418414457</v>
+        <v>20.2789817605773</v>
       </c>
       <c r="K64" t="n">
-        <v>0.794661281116916</v>
+        <v>22.7862838565121</v>
       </c>
       <c r="L64" t="n">
-        <v>1.12449620343361</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>75</v>
-      </c>
-      <c r="B65" t="n">
-        <v>1.81012518001551</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1.84748341012809</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1.54804985926819</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1.67719548002491</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1.74110689381234</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1.62243520219571</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1.58602869108082</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2.82709763117113</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2.02479883920327</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1.89445493260745</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2.25344585717785</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>76</v>
-      </c>
-      <c r="B66" t="n">
-        <v>1.63731029134818</v>
-      </c>
-      <c r="C66" t="n">
-        <v>1.62261072774973</v>
-      </c>
-      <c r="D66" t="n">
-        <v>1.53911450654515</v>
-      </c>
-      <c r="E66" t="n">
-        <v>1.5081412937094</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.286874393150322</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0.232408862524624</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1.07814309899314</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1.19548372813814</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.837620366706239</v>
-      </c>
-      <c r="K66" t="n">
-        <v>1.08223207621724</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0.331782048141798</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>77</v>
-      </c>
-      <c r="B67" t="n">
-        <v>19.5812562313061</v>
-      </c>
-      <c r="C67" t="n">
-        <v>18.9686721488569</v>
-      </c>
-      <c r="D67" t="n">
-        <v>21.2840101863021</v>
-      </c>
-      <c r="E67" t="n">
-        <v>23.2471750155708</v>
-      </c>
-      <c r="F67" t="n">
-        <v>20.8403212993203</v>
-      </c>
-      <c r="G67" t="n">
-        <v>20.3634431926337</v>
-      </c>
-      <c r="H67" t="n">
-        <v>23.4006058986011</v>
-      </c>
-      <c r="I67" t="n">
-        <v>22.0832410892185</v>
-      </c>
-      <c r="J67" t="n">
-        <v>21.1493646396693</v>
-      </c>
-      <c r="K67" t="n">
-        <v>23.4666549589498</v>
-      </c>
-      <c r="L67" t="n">
-        <v>20.1674497316796</v>
+        <v>17.4787229252038</v>
       </c>
     </row>
   </sheetData>
